--- a/RAW2/Traits abeilles/Trait-bee-each-site.xlsx
+++ b/RAW2/Traits abeilles/Trait-bee-each-site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/RAW2/Traits abeilles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{577B2383-E095-4144-B467-A6DB3560C91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F518B15C-7E45-40E9-A909-12E02223DEF6}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{577B2383-E095-4144-B467-A6DB3560C91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7291EB6D-24EE-49D0-90CC-29743C1C8AF0}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cible" sheetId="2" r:id="rId1"/>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590E1CBD-B978-4295-A07A-C6CF91EE0F6B}">
   <dimension ref="A1:I474"/>
   <sheetViews>
-    <sheetView topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16892,9 +16892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F187" sqref="F187"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K177" sqref="K177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
